--- a/DEC 2024-2025.xlsx
+++ b/DEC 2024-2025.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="40">
   <si>
     <t>Site</t>
   </si>
@@ -497,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1094,54 +1094,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="47.109375" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
         <v>60562</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>35125567.42800007</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>60352</v>
       </c>
-      <c r="E2" s="2">
+      <c r="F2" s="2">
         <v>27280121.319000036</v>
       </c>
+      <c r="G2" s="3">
+        <f>F2-D2</f>
+        <v>-7845446.1090000346</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1150,82 +1225,101 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
         <v>1655</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>551543.1800000004</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2">
         <v>1584</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>535191.60000000021</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
         <v>1036</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>416347.10000000009</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="2">
         <v>1931</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>1168772.6600000006</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2">
         <v>1789</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>750565.72000000009</v>
       </c>
     </row>
@@ -1236,60 +1330,73 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="3" max="3" width="32" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="2">
         <v>3184</v>
       </c>
-      <c r="C2" s="2">
+      <c r="D2" s="2">
         <v>2681843.3000000017</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="2">
         <v>2201</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>1411576.8610000012</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" s="2">
         <v>1077</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>761324.93900000001</v>
       </c>
     </row>

--- a/DEC 2024-2025.xlsx
+++ b/DEC 2024-2025.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="YOY – Like-to-Like Stores (LFL)" sheetId="1" r:id="rId1"/>
-    <sheet name="HO" sheetId="4" r:id="rId2"/>
+    <sheet name="YOY OF HO" sheetId="4" r:id="rId2"/>
     <sheet name="New Stores" sheetId="3" r:id="rId3"/>
     <sheet name="Closed Stores" sheetId="2" r:id="rId4"/>
   </sheets>
@@ -497,7 +497,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -1096,8 +1096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
